--- a/Code/Results/Cases/Case_0_209/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_209/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.143881338198355</v>
+        <v>0.04922906503793456</v>
       </c>
       <c r="D2">
-        <v>0.2205696550611975</v>
+        <v>0.2335431669533818</v>
       </c>
       <c r="E2">
-        <v>0.1774328715913711</v>
+        <v>0.1770621566083292</v>
       </c>
       <c r="F2">
-        <v>0.6891608741390556</v>
+        <v>1.090402859406503</v>
       </c>
       <c r="G2">
-        <v>0.3882317819042953</v>
+        <v>0.54164413732029</v>
       </c>
       <c r="H2">
-        <v>0.289152599981108</v>
+        <v>0.6690193297536808</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1883250431032835</v>
+        <v>0.1794921283689916</v>
       </c>
       <c r="K2">
-        <v>3.233358675398051</v>
+        <v>1.134019795009237</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.896992674190372</v>
+        <v>1.074075654142064</v>
       </c>
       <c r="O2">
-        <v>1.378491766723442</v>
+        <v>2.39240610898932</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1245948105981967</v>
+        <v>0.04372219261249199</v>
       </c>
       <c r="D3">
-        <v>0.1968362234690346</v>
+        <v>0.2280103753541027</v>
       </c>
       <c r="E3">
-        <v>0.1582303984021962</v>
+        <v>0.1729029213864237</v>
       </c>
       <c r="F3">
-        <v>0.6409528572214569</v>
+        <v>1.087874066987339</v>
       </c>
       <c r="G3">
-        <v>0.3587283943442969</v>
+        <v>0.540236659254731</v>
       </c>
       <c r="H3">
-        <v>0.2816455853721038</v>
+        <v>0.6726670131113366</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1677948403626814</v>
+        <v>0.1752806193052052</v>
       </c>
       <c r="K3">
-        <v>2.814905331462995</v>
+        <v>1.004534683826932</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8792663425810758</v>
+        <v>1.070720088120027</v>
       </c>
       <c r="O3">
-        <v>1.299824558197201</v>
+        <v>2.396752467254487</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1128447031826596</v>
+        <v>0.04035446198960813</v>
       </c>
       <c r="D4">
-        <v>0.1824087787723272</v>
+        <v>0.2247017736105761</v>
       </c>
       <c r="E4">
-        <v>0.1466128610770561</v>
+        <v>0.1704359372003914</v>
       </c>
       <c r="F4">
-        <v>0.6127379802671982</v>
+        <v>1.087009958797672</v>
       </c>
       <c r="G4">
-        <v>0.3416185861502754</v>
+        <v>0.5398059141262053</v>
       </c>
       <c r="H4">
-        <v>0.2776540986269538</v>
+        <v>0.675255737608353</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1554248303939758</v>
+        <v>0.1727988996902923</v>
       </c>
       <c r="K4">
-        <v>2.557966029849013</v>
+        <v>0.9248982672595218</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8692296320269008</v>
+        <v>1.069054154924743</v>
       </c>
       <c r="O4">
-        <v>1.254936545902922</v>
+        <v>2.401059853161087</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1080764309345881</v>
+        <v>0.03898548459898166</v>
       </c>
       <c r="D5">
-        <v>0.1765630345440741</v>
+        <v>0.2233758762289284</v>
       </c>
       <c r="E5">
-        <v>0.1419185996396202</v>
+        <v>0.1694524959460857</v>
       </c>
       <c r="F5">
-        <v>0.6015671967757328</v>
+        <v>1.08683088677158</v>
       </c>
       <c r="G5">
-        <v>0.3348822894426675</v>
+        <v>0.5397391556690181</v>
       </c>
       <c r="H5">
-        <v>0.2761753378215133</v>
+        <v>0.6763984207333777</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1504383577197927</v>
+        <v>0.1718137766478307</v>
       </c>
       <c r="K5">
-        <v>2.453233306046911</v>
+        <v>0.8924148226365105</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.865344840104143</v>
+        <v>1.068474813633557</v>
       </c>
       <c r="O5">
-        <v>1.237451485347236</v>
+        <v>2.403226715562511</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1072857822098285</v>
+        <v>0.03875837239174018</v>
       </c>
       <c r="D6">
-        <v>0.1755942981099139</v>
+        <v>0.2231570674031644</v>
       </c>
       <c r="E6">
-        <v>0.1411414372489332</v>
+        <v>0.1692905188631926</v>
       </c>
       <c r="F6">
-        <v>0.5997314450542319</v>
+        <v>1.08681160172101</v>
       </c>
       <c r="G6">
-        <v>0.333777518175765</v>
+        <v>0.5397346336558115</v>
       </c>
       <c r="H6">
-        <v>0.2759385035910782</v>
+        <v>0.676593462410473</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1496135069959337</v>
+        <v>0.1716517801574611</v>
       </c>
       <c r="K6">
-        <v>2.435840106369369</v>
+        <v>0.8870191677297896</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8647119501277842</v>
+        <v>1.068384637299317</v>
       </c>
       <c r="O6">
-        <v>1.23459540295417</v>
+        <v>2.40361136452745</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1127803196579436</v>
+        <v>0.04033598571102459</v>
       </c>
       <c r="D7">
-        <v>0.182329808870989</v>
+        <v>0.2246838013044936</v>
       </c>
       <c r="E7">
-        <v>0.1465493952282628</v>
+        <v>0.1704225855338848</v>
       </c>
       <c r="F7">
-        <v>0.6125860304822979</v>
+        <v>1.087006843181008</v>
       </c>
       <c r="G7">
-        <v>0.3415268036904564</v>
+        <v>0.5398045736724697</v>
       </c>
       <c r="H7">
-        <v>0.2776335668158083</v>
+        <v>0.6752707929231576</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1553573670045409</v>
+        <v>0.172785507895334</v>
       </c>
       <c r="K7">
-        <v>2.556553713710031</v>
+        <v>0.924460306538208</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8691764193115006</v>
+        <v>1.069045938203374</v>
       </c>
       <c r="O7">
-        <v>1.254697534035955</v>
+        <v>2.401087410468165</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1372103410957237</v>
+        <v>0.04732749112467616</v>
       </c>
       <c r="D8">
-        <v>0.2123544769501535</v>
+        <v>0.231617148830793</v>
       </c>
       <c r="E8">
-        <v>0.1707738205938298</v>
+        <v>0.175610063125589</v>
       </c>
       <c r="F8">
-        <v>0.6722381394760717</v>
+        <v>1.089387958602067</v>
       </c>
       <c r="G8">
-        <v>0.3778400142824694</v>
+        <v>0.5410687406473045</v>
       </c>
       <c r="H8">
-        <v>0.2864312760863612</v>
+        <v>0.670204602478762</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1811943284510562</v>
+        <v>0.178018382021186</v>
       </c>
       <c r="K8">
-        <v>3.089061114046785</v>
+        <v>1.089402036891727</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8906999149507016</v>
+        <v>1.072837011572034</v>
       </c>
       <c r="O8">
-        <v>1.350627054764487</v>
+        <v>2.39356431464833</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.185997147416586</v>
+        <v>0.0611456032353459</v>
       </c>
       <c r="D9">
-        <v>0.2725246947722582</v>
+        <v>0.2459118055343481</v>
       </c>
       <c r="E9">
-        <v>0.2198182736918142</v>
+        <v>0.1864700625285067</v>
       </c>
       <c r="F9">
-        <v>0.8012241970551059</v>
+        <v>1.099526882180712</v>
       </c>
       <c r="G9">
-        <v>0.4578268864360808</v>
+        <v>0.5469980279428341</v>
       </c>
       <c r="H9">
-        <v>0.3089471851075274</v>
+        <v>0.6630401015990088</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2339636887263623</v>
+        <v>0.1891070822742194</v>
       </c>
       <c r="K9">
-        <v>4.134565628973462</v>
+        <v>1.411721632911338</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9400097170163235</v>
+        <v>1.08338626844305</v>
       </c>
       <c r="O9">
-        <v>1.568284808842861</v>
+        <v>2.391839432326179</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2226014223045496</v>
+        <v>0.07136530736930524</v>
       </c>
       <c r="D10">
-        <v>0.3177328941997786</v>
+        <v>0.256835414864355</v>
       </c>
       <c r="E10">
-        <v>0.2570431634047523</v>
+        <v>0.1948671584996262</v>
       </c>
       <c r="F10">
-        <v>0.9048209058151855</v>
+        <v>1.110321399273431</v>
       </c>
       <c r="G10">
-        <v>0.5231266286000107</v>
+        <v>0.5534743651430176</v>
       </c>
       <c r="H10">
-        <v>0.3292327996417583</v>
+        <v>0.6594669850086774</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2743643466518222</v>
+        <v>0.1977600364594423</v>
       </c>
       <c r="K10">
-        <v>4.905513078414685</v>
+        <v>1.647751915257402</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9811344125895118</v>
+        <v>1.093018861314164</v>
       </c>
       <c r="O10">
-        <v>1.749833864774928</v>
+        <v>2.398553998314839</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2394722069904418</v>
+        <v>0.07602962505127664</v>
       </c>
       <c r="D11">
-        <v>0.338567849356636</v>
+        <v>0.2618954756556775</v>
       </c>
       <c r="E11">
-        <v>0.2742970884047509</v>
+        <v>0.1987779334943482</v>
       </c>
       <c r="F11">
-        <v>0.9542272459000856</v>
+        <v>1.115961088409961</v>
       </c>
       <c r="G11">
-        <v>0.5545337436214055</v>
+        <v>0.556884651597116</v>
       </c>
       <c r="H11">
-        <v>0.3394014741752756</v>
+        <v>0.658209028165345</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2931813863639547</v>
+        <v>0.2018068544458629</v>
       </c>
       <c r="K11">
-        <v>5.257348928892497</v>
+        <v>1.754941936371665</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.001042292658809</v>
+        <v>1.097806331682207</v>
       </c>
       <c r="O11">
-        <v>1.837987946560844</v>
+        <v>2.403350620313603</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2458969851167581</v>
+        <v>0.07779809568620522</v>
       </c>
       <c r="D12">
-        <v>0.3465007729675307</v>
+        <v>0.2638245536722224</v>
       </c>
       <c r="E12">
-        <v>0.2808821168353859</v>
+        <v>0.2002718804681649</v>
       </c>
       <c r="F12">
-        <v>0.9732961643308187</v>
+        <v>1.118201703440164</v>
       </c>
       <c r="G12">
-        <v>0.5666968010031468</v>
+        <v>0.5582430515492831</v>
       </c>
       <c r="H12">
-        <v>0.3433987916158401</v>
+        <v>0.6577855433713751</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3003774408274751</v>
+        <v>0.2033551890805967</v>
       </c>
       <c r="K12">
-        <v>5.390786143825892</v>
+        <v>1.795503966442027</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.008765591122398</v>
+        <v>1.099677236283057</v>
       </c>
       <c r="O12">
-        <v>1.872247594413494</v>
+        <v>2.405418125197059</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.244511607734907</v>
+        <v>0.07741712642426535</v>
       </c>
       <c r="D13">
-        <v>0.3447902815992734</v>
+        <v>0.2634085185147654</v>
       </c>
       <c r="E13">
-        <v>0.2794615409378736</v>
+        <v>0.1999495539120133</v>
       </c>
       <c r="F13">
-        <v>0.9691727943807962</v>
+        <v>1.117714475547743</v>
       </c>
       <c r="G13">
-        <v>0.5640648468576188</v>
+        <v>0.5579475120442083</v>
       </c>
       <c r="H13">
-        <v>0.3425311845478518</v>
+        <v>0.6578743961715077</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2988243848854069</v>
+        <v>0.2030210207555427</v>
       </c>
       <c r="K13">
-        <v>5.362038237341835</v>
+        <v>1.786769513853187</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.007093828679956</v>
+        <v>1.099271729325309</v>
       </c>
       <c r="O13">
-        <v>1.864828845256454</v>
+        <v>2.404961672314897</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2400000245348792</v>
+        <v>0.07617507426003556</v>
       </c>
       <c r="D14">
-        <v>0.3392196038901574</v>
+        <v>0.2620539233715391</v>
       </c>
       <c r="E14">
-        <v>0.2748377818794268</v>
+        <v>0.1989005807252511</v>
       </c>
       <c r="F14">
-        <v>0.9557886545730554</v>
+        <v>1.116143320329826</v>
       </c>
       <c r="G14">
-        <v>0.5555288467080999</v>
+        <v>0.55699506379176</v>
       </c>
       <c r="H14">
-        <v>0.3397273283184319</v>
+        <v>0.6581731279035665</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.293771953884999</v>
+        <v>0.2019339183818687</v>
       </c>
       <c r="K14">
-        <v>5.268322532162131</v>
+        <v>1.758279584154991</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.001673921004027</v>
+        <v>1.097959091690086</v>
       </c>
       <c r="O14">
-        <v>1.840788457748545</v>
+        <v>2.403515678704963</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2372414043467899</v>
+        <v>0.07541456700310789</v>
       </c>
       <c r="D15">
-        <v>0.3358131629037757</v>
+        <v>0.2612258766435502</v>
       </c>
       <c r="E15">
-        <v>0.272012446404176</v>
+        <v>0.1982597486659543</v>
       </c>
       <c r="F15">
-        <v>0.9476383296991315</v>
+        <v>1.115194618593662</v>
       </c>
       <c r="G15">
-        <v>0.5503362214966216</v>
+        <v>0.5564203943650909</v>
       </c>
       <c r="H15">
-        <v>0.3380293375056453</v>
+        <v>0.6583629967680906</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2906865973334192</v>
+        <v>0.201270106340786</v>
       </c>
       <c r="K15">
-        <v>5.210946924390157</v>
+        <v>1.740824895501987</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9983784858158913</v>
+        <v>1.09716260617634</v>
       </c>
       <c r="O15">
-        <v>1.826179702875294</v>
+        <v>2.40266268829177</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2215036793713665</v>
+        <v>0.07106079084843486</v>
       </c>
       <c r="D16">
-        <v>0.3163770748420518</v>
+        <v>0.2565065458025089</v>
       </c>
       <c r="E16">
-        <v>0.2559224654381964</v>
+        <v>0.1946134049827819</v>
       </c>
       <c r="F16">
-        <v>0.9016406408755131</v>
+        <v>1.109967516821726</v>
       </c>
       <c r="G16">
-        <v>0.5211104539945808</v>
+        <v>0.5532608566939956</v>
       </c>
       <c r="H16">
-        <v>0.3285881366170713</v>
+        <v>0.6595565928359406</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2731440527089148</v>
+        <v>0.1974977915268141</v>
       </c>
       <c r="K16">
-        <v>4.882546019672532</v>
+        <v>1.640742938542701</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9798585447168904</v>
+        <v>1.09271412174401</v>
       </c>
       <c r="O16">
-        <v>1.74419126949968</v>
+        <v>2.398275636286769</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2119084676842675</v>
+        <v>0.06839380877570989</v>
       </c>
       <c r="D17">
-        <v>0.3045257387663725</v>
+        <v>0.2536345726649358</v>
       </c>
       <c r="E17">
-        <v>0.2461374306693642</v>
+        <v>0.1923997364802403</v>
       </c>
       <c r="F17">
-        <v>0.8740284756535601</v>
+        <v>1.106947718371913</v>
       </c>
       <c r="G17">
-        <v>0.5036346144445503</v>
+        <v>0.5514416467238306</v>
       </c>
       <c r="H17">
-        <v>0.3230450406580587</v>
+        <v>0.6603829679731206</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2624996809141464</v>
+        <v>0.1952119093347022</v>
       </c>
       <c r="K17">
-        <v>4.681400658955113</v>
+        <v>1.579297724298328</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9688128313558195</v>
+        <v>1.090088759698077</v>
       </c>
       <c r="O17">
-        <v>1.695372901065923</v>
+        <v>2.396030959839067</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2064099022771302</v>
+        <v>0.06686127405423292</v>
       </c>
       <c r="D18">
-        <v>0.2977342484883252</v>
+        <v>0.2519912487874194</v>
       </c>
       <c r="E18">
-        <v>0.2405391298825066</v>
+        <v>0.1911350512181542</v>
       </c>
       <c r="F18">
-        <v>0.8583592148830377</v>
+        <v>1.105279439211884</v>
       </c>
       <c r="G18">
-        <v>0.4937415598039649</v>
+        <v>0.550438959998786</v>
       </c>
       <c r="H18">
-        <v>0.3199446070413501</v>
+        <v>0.6608928632251434</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.256418127062517</v>
+        <v>0.1939075356943505</v>
       </c>
       <c r="K18">
-        <v>4.565810591542004</v>
+        <v>1.543939138495773</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9625718126199843</v>
+        <v>1.08861691266101</v>
       </c>
       <c r="O18">
-        <v>1.667812874752769</v>
+        <v>2.394903822606011</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2045515409009795</v>
+        <v>0.06634263219184788</v>
       </c>
       <c r="D19">
-        <v>0.2954389454599351</v>
+        <v>0.2514363213176267</v>
       </c>
       <c r="E19">
-        <v>0.2386486029777686</v>
+        <v>0.1907083219093835</v>
       </c>
       <c r="F19">
-        <v>0.8530894363735086</v>
+        <v>1.104726371750317</v>
       </c>
       <c r="G19">
-        <v>0.4904184423484281</v>
+        <v>0.5501069609934746</v>
       </c>
       <c r="H19">
-        <v>0.3189096007262577</v>
+        <v>0.6610714441607968</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2543658100853889</v>
+        <v>0.1934676844311696</v>
       </c>
       <c r="K19">
-        <v>4.526690309994024</v>
+        <v>1.531964496340322</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.960477625074958</v>
+        <v>1.08812514003678</v>
       </c>
       <c r="O19">
-        <v>1.658568402449504</v>
+        <v>2.394550331711258</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2129277559720038</v>
+        <v>0.06867756430446548</v>
       </c>
       <c r="D20">
-        <v>0.3057847065526857</v>
+        <v>0.2539394141580402</v>
       </c>
       <c r="E20">
-        <v>0.2471759437367851</v>
+        <v>0.1926344998738685</v>
       </c>
       <c r="F20">
-        <v>0.876945617672007</v>
+        <v>1.107262077294365</v>
       </c>
       <c r="G20">
-        <v>0.5054783580696522</v>
+        <v>0.5516307827322038</v>
       </c>
       <c r="H20">
-        <v>0.3236259448916172</v>
+        <v>0.6602914191463185</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2636285173424824</v>
+        <v>0.1954541685105085</v>
       </c>
       <c r="K20">
-        <v>4.702801926222719</v>
+        <v>1.585840441406333</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9699769712434403</v>
+        <v>1.090364283639317</v>
       </c>
       <c r="O20">
-        <v>1.700515443158622</v>
+        <v>2.396252937727468</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2413241653981828</v>
+        <v>0.07653983559487187</v>
       </c>
       <c r="D21">
-        <v>0.3408546382348874</v>
+        <v>0.2624514505111364</v>
       </c>
       <c r="E21">
-        <v>0.2761944543292572</v>
+        <v>0.1992083365737543</v>
       </c>
       <c r="F21">
-        <v>0.9597098691293979</v>
+        <v>1.116601956368171</v>
       </c>
       <c r="G21">
-        <v>0.5580285434347871</v>
+        <v>0.5572730006120423</v>
       </c>
       <c r="H21">
-        <v>0.3405468135344876</v>
+        <v>0.6580839478357632</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2952540017237197</v>
+        <v>0.202252795415248</v>
       </c>
       <c r="K21">
-        <v>5.295843197160593</v>
+        <v>1.766648560035662</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.003260768534986</v>
+        <v>1.098343073810355</v>
       </c>
       <c r="O21">
-        <v>1.847825241290053</v>
+        <v>2.403933581667445</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2600961294985922</v>
+        <v>0.08169107271757525</v>
       </c>
       <c r="D22">
-        <v>0.3640288371792195</v>
+        <v>0.2680899422845755</v>
       </c>
       <c r="E22">
-        <v>0.2954617419014767</v>
+        <v>0.203580594436886</v>
       </c>
       <c r="F22">
-        <v>1.015914905263841</v>
+        <v>1.123318111320032</v>
       </c>
       <c r="G22">
-        <v>0.5939591155936057</v>
+        <v>0.561351150544624</v>
       </c>
       <c r="H22">
-        <v>0.352466336066513</v>
+        <v>0.6569494564158731</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3163375588189297</v>
+        <v>0.2067887227297689</v>
       </c>
       <c r="K22">
-        <v>5.684644957468436</v>
+        <v>1.884649849512698</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.026095957153927</v>
+        <v>1.103895558970137</v>
       </c>
       <c r="O22">
-        <v>1.949256047950229</v>
+        <v>2.410417376273529</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2500560442602335</v>
+        <v>0.07894059338327963</v>
       </c>
       <c r="D23">
-        <v>0.3516355438430168</v>
+        <v>0.2650737158269436</v>
       </c>
       <c r="E23">
-        <v>0.2851489345329767</v>
+        <v>0.2012401117643776</v>
       </c>
       <c r="F23">
-        <v>0.9857126139204837</v>
+        <v>1.119677532656013</v>
       </c>
       <c r="G23">
-        <v>0.5746283853701613</v>
+        <v>0.5591387392619822</v>
       </c>
       <c r="H23">
-        <v>0.3460219157943101</v>
+        <v>0.6575267424839524</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3050443548531803</v>
+        <v>0.2043593384992164</v>
       </c>
       <c r="K23">
-        <v>5.477007987671072</v>
+        <v>1.821686446001593</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.013805148484948</v>
+        <v>1.100901282218373</v>
       </c>
       <c r="O23">
-        <v>1.894621814640857</v>
+        <v>2.406822690891971</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2124668804868435</v>
+        <v>0.06854927609754213</v>
       </c>
       <c r="D24">
-        <v>0.305215459019621</v>
+        <v>0.2538015709776005</v>
       </c>
       <c r="E24">
-        <v>0.2467063475100417</v>
+        <v>0.1925283384770324</v>
       </c>
       <c r="F24">
-        <v>0.8756261405661263</v>
+        <v>1.107119744306942</v>
       </c>
       <c r="G24">
-        <v>0.504644323660159</v>
+        <v>0.5515451397920543</v>
       </c>
       <c r="H24">
-        <v>0.3233630499284317</v>
+        <v>0.6603326999681087</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2631180524670214</v>
+        <v>0.1953446125795608</v>
       </c>
       <c r="K24">
-        <v>4.693126257349888</v>
+        <v>1.582882581339163</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.969450324028287</v>
+        <v>1.09023960240232</v>
       </c>
       <c r="O24">
-        <v>1.69818892862159</v>
+        <v>2.396152072718053</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1726825410694488</v>
+        <v>0.05739570764345103</v>
       </c>
       <c r="D25">
-        <v>0.2560875588996225</v>
+        <v>0.241970413493533</v>
       </c>
       <c r="E25">
-        <v>0.2063604517551099</v>
+        <v>0.1834586378819481</v>
       </c>
       <c r="F25">
-        <v>0.7648945041966329</v>
+        <v>1.09619733480973</v>
       </c>
       <c r="G25">
-        <v>0.4351312319748217</v>
+        <v>0.545022892834524</v>
       </c>
       <c r="H25">
-        <v>0.3022394780809208</v>
+        <v>0.6646815256322753</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2194284256229935</v>
+        <v>0.186018556995549</v>
       </c>
       <c r="K25">
-        <v>3.851392350226433</v>
+        <v>1.324655878914655</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9258535994324149</v>
+        <v>1.080200712642096</v>
       </c>
       <c r="O25">
-        <v>1.505879915293121</v>
+        <v>2.390907225725812</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_209/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_209/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04922906503793456</v>
+        <v>0.1438813381979003</v>
       </c>
       <c r="D2">
-        <v>0.2335431669533818</v>
+        <v>0.2205696550611407</v>
       </c>
       <c r="E2">
-        <v>0.1770621566083292</v>
+        <v>0.1774328715913782</v>
       </c>
       <c r="F2">
-        <v>1.090402859406503</v>
+        <v>0.6891608741390485</v>
       </c>
       <c r="G2">
-        <v>0.54164413732029</v>
+        <v>0.3882317819042953</v>
       </c>
       <c r="H2">
-        <v>0.6690193297536808</v>
+        <v>0.2891525999809943</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1794921283689916</v>
+        <v>0.1883250431032337</v>
       </c>
       <c r="K2">
-        <v>1.134019795009237</v>
+        <v>3.233358675398222</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.074075654142064</v>
+        <v>0.8969926741903151</v>
       </c>
       <c r="O2">
-        <v>2.39240610898932</v>
+        <v>1.378491766723471</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04372219261249199</v>
+        <v>0.1245948105980972</v>
       </c>
       <c r="D3">
-        <v>0.2280103753541027</v>
+        <v>0.1968362234692194</v>
       </c>
       <c r="E3">
-        <v>0.1729029213864237</v>
+        <v>0.1582303984022246</v>
       </c>
       <c r="F3">
-        <v>1.087874066987339</v>
+        <v>0.6409528572214711</v>
       </c>
       <c r="G3">
-        <v>0.540236659254731</v>
+        <v>0.3587283943442827</v>
       </c>
       <c r="H3">
-        <v>0.6726670131113366</v>
+        <v>0.2816455853720896</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1752806193052052</v>
+        <v>0.1677948403625962</v>
       </c>
       <c r="K3">
-        <v>1.004534683826932</v>
+        <v>2.814905331462768</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.070720088120027</v>
+        <v>0.87926634258109</v>
       </c>
       <c r="O3">
-        <v>2.396752467254487</v>
+        <v>1.299824558197088</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04035446198960813</v>
+        <v>0.1128447031826454</v>
       </c>
       <c r="D4">
-        <v>0.2247017736105761</v>
+        <v>0.1824087787723272</v>
       </c>
       <c r="E4">
-        <v>0.1704359372003914</v>
+        <v>0.1466128610770525</v>
       </c>
       <c r="F4">
-        <v>1.087009958797672</v>
+        <v>0.6127379802671982</v>
       </c>
       <c r="G4">
-        <v>0.5398059141262053</v>
+        <v>0.3416185861502328</v>
       </c>
       <c r="H4">
-        <v>0.675255737608353</v>
+        <v>0.2776540986269396</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1727988996902923</v>
+        <v>0.1554248303940398</v>
       </c>
       <c r="K4">
-        <v>0.9248982672595218</v>
+        <v>2.557966029849098</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.069054154924743</v>
+        <v>0.8692296320269577</v>
       </c>
       <c r="O4">
-        <v>2.401059853161087</v>
+        <v>1.254936545902979</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03898548459898166</v>
+        <v>0.1080764309349007</v>
       </c>
       <c r="D5">
-        <v>0.2233758762289284</v>
+        <v>0.1765630345438893</v>
       </c>
       <c r="E5">
-        <v>0.1694524959460857</v>
+        <v>0.141918599639606</v>
       </c>
       <c r="F5">
-        <v>1.08683088677158</v>
+        <v>0.601567196775747</v>
       </c>
       <c r="G5">
-        <v>0.5397391556690181</v>
+        <v>0.3348822894425965</v>
       </c>
       <c r="H5">
-        <v>0.6763984207333777</v>
+        <v>0.2761753378215133</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1718137766478307</v>
+        <v>0.1504383577197643</v>
       </c>
       <c r="K5">
-        <v>0.8924148226365105</v>
+        <v>2.453233306046769</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.068474813633557</v>
+        <v>0.8653448401041999</v>
       </c>
       <c r="O5">
-        <v>2.403226715562511</v>
+        <v>1.237451485347208</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03875837239174018</v>
+        <v>0.1072857822098428</v>
       </c>
       <c r="D6">
-        <v>0.2231570674031644</v>
+        <v>0.175594298109857</v>
       </c>
       <c r="E6">
-        <v>0.1692905188631926</v>
+        <v>0.1411414372489226</v>
       </c>
       <c r="F6">
-        <v>1.08681160172101</v>
+        <v>0.5997314450542461</v>
       </c>
       <c r="G6">
-        <v>0.5397346336558115</v>
+        <v>0.3337775181758147</v>
       </c>
       <c r="H6">
-        <v>0.676593462410473</v>
+        <v>0.2759385035910853</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1716517801574611</v>
+        <v>0.1496135069959408</v>
       </c>
       <c r="K6">
-        <v>0.8870191677297896</v>
+        <v>2.435840106369312</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.068384637299317</v>
+        <v>0.8647119501277842</v>
       </c>
       <c r="O6">
-        <v>2.40361136452745</v>
+        <v>1.234595402954255</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04033598571102459</v>
+        <v>0.1127803196578583</v>
       </c>
       <c r="D7">
-        <v>0.2246838013044936</v>
+        <v>0.1823298088708327</v>
       </c>
       <c r="E7">
-        <v>0.1704225855338848</v>
+        <v>0.1465493952282522</v>
       </c>
       <c r="F7">
-        <v>1.087006843181008</v>
+        <v>0.6125860304822908</v>
       </c>
       <c r="G7">
-        <v>0.5398045736724697</v>
+        <v>0.3415268036905132</v>
       </c>
       <c r="H7">
-        <v>0.6752707929231576</v>
+        <v>0.2776335668158083</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.172785507895334</v>
+        <v>0.155357367004477</v>
       </c>
       <c r="K7">
-        <v>0.924460306538208</v>
+        <v>2.556553713709974</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.069045938203374</v>
+        <v>0.8691764193115006</v>
       </c>
       <c r="O7">
-        <v>2.401087410468165</v>
+        <v>1.254697534035955</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04732749112467616</v>
+        <v>0.1372103410954963</v>
       </c>
       <c r="D8">
-        <v>0.231617148830793</v>
+        <v>0.2123544769500398</v>
       </c>
       <c r="E8">
-        <v>0.175610063125589</v>
+        <v>0.1707738205938227</v>
       </c>
       <c r="F8">
-        <v>1.089387958602067</v>
+        <v>0.6722381394760788</v>
       </c>
       <c r="G8">
-        <v>0.5410687406473045</v>
+        <v>0.3778400142824694</v>
       </c>
       <c r="H8">
-        <v>0.670204602478762</v>
+        <v>0.2864312760863612</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.178018382021186</v>
+        <v>0.1811943284510917</v>
       </c>
       <c r="K8">
-        <v>1.089402036891727</v>
+        <v>3.089061114046785</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.072837011572034</v>
+        <v>0.8906999149507016</v>
       </c>
       <c r="O8">
-        <v>2.39356431464833</v>
+        <v>1.350627054764431</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0611456032353459</v>
+        <v>0.1859971474166002</v>
       </c>
       <c r="D9">
-        <v>0.2459118055343481</v>
+        <v>0.272524694772315</v>
       </c>
       <c r="E9">
-        <v>0.1864700625285067</v>
+        <v>0.2198182736918142</v>
       </c>
       <c r="F9">
-        <v>1.099526882180712</v>
+        <v>0.8012241970550917</v>
       </c>
       <c r="G9">
-        <v>0.5469980279428341</v>
+        <v>0.4578268864360382</v>
       </c>
       <c r="H9">
-        <v>0.6630401015990088</v>
+        <v>0.3089471851075274</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1891070822742194</v>
+        <v>0.2339636887263907</v>
       </c>
       <c r="K9">
-        <v>1.411721632911338</v>
+        <v>4.134565628973519</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.08338626844305</v>
+        <v>0.9400097170163093</v>
       </c>
       <c r="O9">
-        <v>2.391839432326179</v>
+        <v>1.568284808842918</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07136530736930524</v>
+        <v>0.222601422304308</v>
       </c>
       <c r="D10">
-        <v>0.256835414864355</v>
+        <v>0.3177328941997217</v>
       </c>
       <c r="E10">
-        <v>0.1948671584996262</v>
+        <v>0.2570431634047381</v>
       </c>
       <c r="F10">
-        <v>1.110321399273431</v>
+        <v>0.9048209058151855</v>
       </c>
       <c r="G10">
-        <v>0.5534743651430176</v>
+        <v>0.5231266286000249</v>
       </c>
       <c r="H10">
-        <v>0.6594669850086774</v>
+        <v>0.3292327996417583</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1977600364594423</v>
+        <v>0.274364346651808</v>
       </c>
       <c r="K10">
-        <v>1.647751915257402</v>
+        <v>4.905513078414685</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.093018861314164</v>
+        <v>0.9811344125895403</v>
       </c>
       <c r="O10">
-        <v>2.398553998314839</v>
+        <v>1.749833864774956</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07602962505127664</v>
+        <v>0.2394722069903281</v>
       </c>
       <c r="D11">
-        <v>0.2618954756556775</v>
+        <v>0.338567849356707</v>
       </c>
       <c r="E11">
-        <v>0.1987779334943482</v>
+        <v>0.2742970884047793</v>
       </c>
       <c r="F11">
-        <v>1.115961088409961</v>
+        <v>0.9542272459000714</v>
       </c>
       <c r="G11">
-        <v>0.556884651597116</v>
+        <v>0.5545337436214623</v>
       </c>
       <c r="H11">
-        <v>0.658209028165345</v>
+        <v>0.3394014741752613</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2018068544458629</v>
+        <v>0.2931813863638837</v>
       </c>
       <c r="K11">
-        <v>1.754941936371665</v>
+        <v>5.257348928892441</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.097806331682207</v>
+        <v>1.001042292658809</v>
       </c>
       <c r="O11">
-        <v>2.403350620313603</v>
+        <v>1.837987946560702</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07779809568620522</v>
+        <v>0.2458969851167438</v>
       </c>
       <c r="D12">
-        <v>0.2638245536722224</v>
+        <v>0.3465007729676444</v>
       </c>
       <c r="E12">
-        <v>0.2002718804681649</v>
+        <v>0.2808821168353717</v>
       </c>
       <c r="F12">
-        <v>1.118201703440164</v>
+        <v>0.9732961643308187</v>
       </c>
       <c r="G12">
-        <v>0.5582430515492831</v>
+        <v>0.5666968010032036</v>
       </c>
       <c r="H12">
-        <v>0.6577855433713751</v>
+        <v>0.3433987916158401</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2033551890805967</v>
+        <v>0.3003774408274751</v>
       </c>
       <c r="K12">
-        <v>1.795503966442027</v>
+        <v>5.390786143825949</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.099677236283057</v>
+        <v>1.008765591122454</v>
       </c>
       <c r="O12">
-        <v>2.405418125197059</v>
+        <v>1.872247594413437</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07741712642426535</v>
+        <v>0.2445116077348786</v>
       </c>
       <c r="D13">
-        <v>0.2634085185147654</v>
+        <v>0.3447902815991739</v>
       </c>
       <c r="E13">
-        <v>0.1999495539120133</v>
+        <v>0.2794615409378594</v>
       </c>
       <c r="F13">
-        <v>1.117714475547743</v>
+        <v>0.9691727943807962</v>
       </c>
       <c r="G13">
-        <v>0.5579475120442083</v>
+        <v>0.5640648468576046</v>
       </c>
       <c r="H13">
-        <v>0.6578743961715077</v>
+        <v>0.3425311845477381</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2030210207555427</v>
+        <v>0.2988243848854069</v>
       </c>
       <c r="K13">
-        <v>1.786769513853187</v>
+        <v>5.362038237341835</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.099271729325309</v>
+        <v>1.007093828679956</v>
       </c>
       <c r="O13">
-        <v>2.404961672314897</v>
+        <v>1.864828845256454</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07617507426003556</v>
+        <v>0.2400000245348792</v>
       </c>
       <c r="D14">
-        <v>0.2620539233715391</v>
+        <v>0.3392196038901858</v>
       </c>
       <c r="E14">
-        <v>0.1989005807252511</v>
+        <v>0.2748377818794268</v>
       </c>
       <c r="F14">
-        <v>1.116143320329826</v>
+        <v>0.9557886545730412</v>
       </c>
       <c r="G14">
-        <v>0.55699506379176</v>
+        <v>0.5555288467081567</v>
       </c>
       <c r="H14">
-        <v>0.6581731279035665</v>
+        <v>0.3397273283185456</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2019339183818687</v>
+        <v>0.2937719538849706</v>
       </c>
       <c r="K14">
-        <v>1.758279584154991</v>
+        <v>5.268322532162131</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.097959091690086</v>
+        <v>1.001673921004027</v>
       </c>
       <c r="O14">
-        <v>2.403515678704963</v>
+        <v>1.840788457748545</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07541456700310789</v>
+        <v>0.2372414043470172</v>
       </c>
       <c r="D15">
-        <v>0.2612258766435502</v>
+        <v>0.3358131629037331</v>
       </c>
       <c r="E15">
-        <v>0.1982597486659543</v>
+        <v>0.2720124464041689</v>
       </c>
       <c r="F15">
-        <v>1.115194618593662</v>
+        <v>0.9476383296991457</v>
       </c>
       <c r="G15">
-        <v>0.5564203943650909</v>
+        <v>0.5503362214965648</v>
       </c>
       <c r="H15">
-        <v>0.6583629967680906</v>
+        <v>0.3380293375055317</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.201270106340786</v>
+        <v>0.2906865973333055</v>
       </c>
       <c r="K15">
-        <v>1.740824895501987</v>
+        <v>5.210946924390043</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.09716260617634</v>
+        <v>0.9983784858158344</v>
       </c>
       <c r="O15">
-        <v>2.40266268829177</v>
+        <v>1.826179702875208</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07106079084843486</v>
+        <v>0.2215036793711533</v>
       </c>
       <c r="D16">
-        <v>0.2565065458025089</v>
+        <v>0.3163770748418244</v>
       </c>
       <c r="E16">
-        <v>0.1946134049827819</v>
+        <v>0.2559224654381751</v>
       </c>
       <c r="F16">
-        <v>1.109967516821726</v>
+        <v>0.9016406408755131</v>
       </c>
       <c r="G16">
-        <v>0.5532608566939956</v>
+        <v>0.5211104539945808</v>
       </c>
       <c r="H16">
-        <v>0.6595565928359406</v>
+        <v>0.3285881366170713</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1974977915268141</v>
+        <v>0.2731440527089291</v>
       </c>
       <c r="K16">
-        <v>1.640742938542701</v>
+        <v>4.882546019672418</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.09271412174401</v>
+        <v>0.979858544716933</v>
       </c>
       <c r="O16">
-        <v>2.398275636286769</v>
+        <v>1.74419126949968</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06839380877570989</v>
+        <v>0.2119084676842675</v>
       </c>
       <c r="D17">
-        <v>0.2536345726649358</v>
+        <v>0.3045257387665856</v>
       </c>
       <c r="E17">
-        <v>0.1923997364802403</v>
+        <v>0.2461374306693642</v>
       </c>
       <c r="F17">
-        <v>1.106947718371913</v>
+        <v>0.8740284756535601</v>
       </c>
       <c r="G17">
-        <v>0.5514416467238306</v>
+        <v>0.5036346144446213</v>
       </c>
       <c r="H17">
-        <v>0.6603829679731206</v>
+        <v>0.3230450406580729</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1952119093347022</v>
+        <v>0.2624996809142175</v>
       </c>
       <c r="K17">
-        <v>1.579297724298328</v>
+        <v>4.681400658955283</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.090088759698077</v>
+        <v>0.9688128313557627</v>
       </c>
       <c r="O17">
-        <v>2.396030959839067</v>
+        <v>1.695372901065923</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06686127405423292</v>
+        <v>0.2064099022769028</v>
       </c>
       <c r="D18">
-        <v>0.2519912487874194</v>
+        <v>0.2977342484881973</v>
       </c>
       <c r="E18">
-        <v>0.1911350512181542</v>
+        <v>0.2405391298824853</v>
       </c>
       <c r="F18">
-        <v>1.105279439211884</v>
+        <v>0.8583592148830377</v>
       </c>
       <c r="G18">
-        <v>0.550438959998786</v>
+        <v>0.4937415598039081</v>
       </c>
       <c r="H18">
-        <v>0.6608928632251434</v>
+        <v>0.3199446070413501</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1939075356943505</v>
+        <v>0.2564181270624744</v>
       </c>
       <c r="K18">
-        <v>1.543939138495773</v>
+        <v>4.565810591542004</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.08861691266101</v>
+        <v>0.9625718126199132</v>
       </c>
       <c r="O18">
-        <v>2.394903822606011</v>
+        <v>1.667812874752769</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06634263219184788</v>
+        <v>0.2045515409010932</v>
       </c>
       <c r="D19">
-        <v>0.2514363213176267</v>
+        <v>0.2954389454598498</v>
       </c>
       <c r="E19">
-        <v>0.1907083219093835</v>
+        <v>0.2386486029777899</v>
       </c>
       <c r="F19">
-        <v>1.104726371750317</v>
+        <v>0.8530894363734944</v>
       </c>
       <c r="G19">
-        <v>0.5501069609934746</v>
+        <v>0.4904184423483713</v>
       </c>
       <c r="H19">
-        <v>0.6610714441607968</v>
+        <v>0.3189096007261583</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1934676844311696</v>
+        <v>0.2543658100853747</v>
       </c>
       <c r="K19">
-        <v>1.531964496340322</v>
+        <v>4.526690309994081</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.08812514003678</v>
+        <v>0.9604776250750291</v>
       </c>
       <c r="O19">
-        <v>2.394550331711258</v>
+        <v>1.658568402449532</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06867756430446548</v>
+        <v>0.2129277559721316</v>
       </c>
       <c r="D20">
-        <v>0.2539394141580402</v>
+        <v>0.3057847065526857</v>
       </c>
       <c r="E20">
-        <v>0.1926344998738685</v>
+        <v>0.2471759437367993</v>
       </c>
       <c r="F20">
-        <v>1.107262077294365</v>
+        <v>0.8769456176719927</v>
       </c>
       <c r="G20">
-        <v>0.5516307827322038</v>
+        <v>0.5054783580696665</v>
       </c>
       <c r="H20">
-        <v>0.6602914191463185</v>
+        <v>0.3236259448917309</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1954541685105085</v>
+        <v>0.2636285173424824</v>
       </c>
       <c r="K20">
-        <v>1.585840441406333</v>
+        <v>4.702801926222719</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.090364283639317</v>
+        <v>0.9699769712434403</v>
       </c>
       <c r="O20">
-        <v>2.396252937727468</v>
+        <v>1.700515443158622</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07653983559487187</v>
+        <v>0.2413241653984102</v>
       </c>
       <c r="D21">
-        <v>0.2624514505111364</v>
+        <v>0.3408546382347595</v>
       </c>
       <c r="E21">
-        <v>0.1992083365737543</v>
+        <v>0.2761944543292287</v>
       </c>
       <c r="F21">
-        <v>1.116601956368171</v>
+        <v>0.9597098691293979</v>
       </c>
       <c r="G21">
-        <v>0.5572730006120423</v>
+        <v>0.5580285434347871</v>
       </c>
       <c r="H21">
-        <v>0.6580839478357632</v>
+        <v>0.340546813534587</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.202252795415248</v>
+        <v>0.2952540017237766</v>
       </c>
       <c r="K21">
-        <v>1.766648560035662</v>
+        <v>5.29584319716065</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.098343073810355</v>
+        <v>1.003260768534986</v>
       </c>
       <c r="O21">
-        <v>2.403933581667445</v>
+        <v>1.847825241290025</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08169107271757525</v>
+        <v>0.2600961294989332</v>
       </c>
       <c r="D22">
-        <v>0.2680899422845755</v>
+        <v>0.3640288371790916</v>
       </c>
       <c r="E22">
-        <v>0.203580594436886</v>
+        <v>0.2954617419014909</v>
       </c>
       <c r="F22">
-        <v>1.123318111320032</v>
+        <v>1.015914905263827</v>
       </c>
       <c r="G22">
-        <v>0.561351150544624</v>
+        <v>0.5939591155936057</v>
       </c>
       <c r="H22">
-        <v>0.6569494564158731</v>
+        <v>0.352466336066513</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2067887227297689</v>
+        <v>0.3163375588189012</v>
       </c>
       <c r="K22">
-        <v>1.884649849512698</v>
+        <v>5.684644957468379</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.103895558970137</v>
+        <v>1.026095957153927</v>
       </c>
       <c r="O22">
-        <v>2.410417376273529</v>
+        <v>1.9492560479502</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07894059338327963</v>
+        <v>0.250056044260333</v>
       </c>
       <c r="D23">
-        <v>0.2650737158269436</v>
+        <v>0.3516355438428036</v>
       </c>
       <c r="E23">
-        <v>0.2012401117643776</v>
+        <v>0.2851489345330052</v>
       </c>
       <c r="F23">
-        <v>1.119677532656013</v>
+        <v>0.9857126139204979</v>
       </c>
       <c r="G23">
-        <v>0.5591387392619822</v>
+        <v>0.5746283853702181</v>
       </c>
       <c r="H23">
-        <v>0.6575267424839524</v>
+        <v>0.3460219157944096</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2043593384992164</v>
+        <v>0.3050443548531518</v>
       </c>
       <c r="K23">
-        <v>1.821686446001593</v>
+        <v>5.477007987671072</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.100901282218373</v>
+        <v>1.013805148484948</v>
       </c>
       <c r="O23">
-        <v>2.406822690891971</v>
+        <v>1.894621814640885</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06854927609754213</v>
+        <v>0.2124668804866161</v>
       </c>
       <c r="D24">
-        <v>0.2538015709776005</v>
+        <v>0.305215459019621</v>
       </c>
       <c r="E24">
-        <v>0.1925283384770324</v>
+        <v>0.2467063475100844</v>
       </c>
       <c r="F24">
-        <v>1.107119744306942</v>
+        <v>0.8756261405661263</v>
       </c>
       <c r="G24">
-        <v>0.5515451397920543</v>
+        <v>0.5046443236601306</v>
       </c>
       <c r="H24">
-        <v>0.6603326999681087</v>
+        <v>0.3233630499284175</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1953446125795608</v>
+        <v>0.2631180524671066</v>
       </c>
       <c r="K24">
-        <v>1.582882581339163</v>
+        <v>4.693126257349945</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.09023960240232</v>
+        <v>0.969450324028287</v>
       </c>
       <c r="O24">
-        <v>2.396152072718053</v>
+        <v>1.698188928621676</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05739570764345103</v>
+        <v>0.1726825410693351</v>
       </c>
       <c r="D25">
-        <v>0.241970413493533</v>
+        <v>0.2560875588995941</v>
       </c>
       <c r="E25">
-        <v>0.1834586378819481</v>
+        <v>0.2063604517551241</v>
       </c>
       <c r="F25">
-        <v>1.09619733480973</v>
+        <v>0.7648945041966186</v>
       </c>
       <c r="G25">
-        <v>0.545022892834524</v>
+        <v>0.4351312319747791</v>
       </c>
       <c r="H25">
-        <v>0.6646815256322753</v>
+        <v>0.3022394780809208</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.186018556995549</v>
+        <v>0.2194284256229366</v>
       </c>
       <c r="K25">
-        <v>1.324655878914655</v>
+        <v>3.851392350226547</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.080200712642096</v>
+        <v>0.9258535994324291</v>
       </c>
       <c r="O25">
-        <v>2.390907225725812</v>
+        <v>1.505879915293121</v>
       </c>
     </row>
   </sheetData>
